--- a/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
+++ b/InputData/trans/BPoEFUbVT/BAU Perc of Each Fuel Used by Veh Tech.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Indonesia\eps-indonesia\InputData\trans\BPoEFUbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8952D32F-BD56-416E-8C5D-C248D1EB81F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD0C3C1-4BA6-4C88-8C72-0150507CE5FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5080" yWindow="185" windowWidth="14395" windowHeight="10080" firstSheet="34" activeTab="34" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8450" yWindow="340" windowWidth="11080" windowHeight="10070" tabRatio="794" firstSheet="88" activeTab="88" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1627,7 +1627,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
@@ -1767,9 +1767,7 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -1781,131 +1779,99 @@
         <v>276</v>
       </c>
       <c r="B1">
-        <f>'AEO 36'!C1</f>
         <v>2019</v>
       </c>
       <c r="C1">
-        <f>'AEO 36'!D1</f>
         <v>2020</v>
       </c>
       <c r="D1">
-        <f>'AEO 36'!E1</f>
         <v>2021</v>
       </c>
       <c r="E1">
-        <f>'AEO 36'!F1</f>
         <v>2022</v>
       </c>
       <c r="F1">
-        <f>'AEO 36'!G1</f>
         <v>2023</v>
       </c>
       <c r="G1">
-        <f>'AEO 36'!H1</f>
         <v>2024</v>
       </c>
       <c r="H1">
-        <f>'AEO 36'!I1</f>
         <v>2025</v>
       </c>
       <c r="I1">
-        <f>'AEO 36'!J1</f>
         <v>2026</v>
       </c>
       <c r="J1">
-        <f>'AEO 36'!K1</f>
         <v>2027</v>
       </c>
       <c r="K1">
-        <f>'AEO 36'!L1</f>
         <v>2028</v>
       </c>
       <c r="L1">
-        <f>'AEO 36'!M1</f>
         <v>2029</v>
       </c>
       <c r="M1">
-        <f>'AEO 36'!N1</f>
         <v>2030</v>
       </c>
       <c r="N1">
-        <f>'AEO 36'!O1</f>
         <v>2031</v>
       </c>
       <c r="O1">
-        <f>'AEO 36'!P1</f>
         <v>2032</v>
       </c>
       <c r="P1">
-        <f>'AEO 36'!Q1</f>
         <v>2033</v>
       </c>
       <c r="Q1">
-        <f>'AEO 36'!R1</f>
         <v>2034</v>
       </c>
       <c r="R1">
-        <f>'AEO 36'!S1</f>
         <v>2035</v>
       </c>
       <c r="S1">
-        <f>'AEO 36'!T1</f>
         <v>2036</v>
       </c>
       <c r="T1">
-        <f>'AEO 36'!U1</f>
         <v>2037</v>
       </c>
       <c r="U1">
-        <f>'AEO 36'!V1</f>
         <v>2038</v>
       </c>
       <c r="V1">
-        <f>'AEO 36'!W1</f>
         <v>2039</v>
       </c>
       <c r="W1">
-        <f>'AEO 36'!X1</f>
         <v>2040</v>
       </c>
       <c r="X1">
-        <f>'AEO 36'!Y1</f>
         <v>2041</v>
       </c>
       <c r="Y1">
-        <f>'AEO 36'!Z1</f>
         <v>2042</v>
       </c>
       <c r="Z1">
-        <f>'AEO 36'!AA1</f>
         <v>2043</v>
       </c>
       <c r="AA1">
-        <f>'AEO 36'!AB1</f>
         <v>2044</v>
       </c>
       <c r="AB1">
-        <f>'AEO 36'!AC1</f>
         <v>2045</v>
       </c>
       <c r="AC1">
-        <f>'AEO 36'!AD1</f>
         <v>2046</v>
       </c>
       <c r="AD1">
-        <f>'AEO 36'!AE1</f>
         <v>2047</v>
       </c>
       <c r="AE1">
-        <f>'AEO 36'!AF1</f>
         <v>2048</v>
       </c>
       <c r="AF1">
-        <f>'AEO 36'!AG1</f>
         <v>2049</v>
       </c>
       <c r="AG1">
-        <f>'AEO 36'!AH1</f>
         <v>2050</v>
       </c>
     </row>
@@ -2931,7 +2897,9 @@
   </sheetPr>
   <dimension ref="A1:AH11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -4195,7 +4163,7 @@
   <dimension ref="A1:AJ11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -5360,8 +5328,8 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AE13" sqref="AE13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -6541,8 +6509,8 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -7673,8 +7641,8 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AG11" sqref="AG11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -8805,8 +8773,8 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AG1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -9978,7 +9946,7 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:AG1"/>
     </sheetView>
   </sheetViews>
@@ -9992,131 +9960,99 @@
         <v>276</v>
       </c>
       <c r="B1">
-        <f>'AEO 36'!C1</f>
         <v>2019</v>
       </c>
       <c r="C1">
-        <f>'AEO 36'!D1</f>
         <v>2020</v>
       </c>
       <c r="D1">
-        <f>'AEO 36'!E1</f>
         <v>2021</v>
       </c>
       <c r="E1">
-        <f>'AEO 36'!F1</f>
         <v>2022</v>
       </c>
       <c r="F1">
-        <f>'AEO 36'!G1</f>
         <v>2023</v>
       </c>
       <c r="G1">
-        <f>'AEO 36'!H1</f>
         <v>2024</v>
       </c>
       <c r="H1">
-        <f>'AEO 36'!I1</f>
         <v>2025</v>
       </c>
       <c r="I1">
-        <f>'AEO 36'!J1</f>
         <v>2026</v>
       </c>
       <c r="J1">
-        <f>'AEO 36'!K1</f>
         <v>2027</v>
       </c>
       <c r="K1">
-        <f>'AEO 36'!L1</f>
         <v>2028</v>
       </c>
       <c r="L1">
-        <f>'AEO 36'!M1</f>
         <v>2029</v>
       </c>
       <c r="M1">
-        <f>'AEO 36'!N1</f>
         <v>2030</v>
       </c>
       <c r="N1">
-        <f>'AEO 36'!O1</f>
         <v>2031</v>
       </c>
       <c r="O1">
-        <f>'AEO 36'!P1</f>
         <v>2032</v>
       </c>
       <c r="P1">
-        <f>'AEO 36'!Q1</f>
         <v>2033</v>
       </c>
       <c r="Q1">
-        <f>'AEO 36'!R1</f>
         <v>2034</v>
       </c>
       <c r="R1">
-        <f>'AEO 36'!S1</f>
         <v>2035</v>
       </c>
       <c r="S1">
-        <f>'AEO 36'!T1</f>
         <v>2036</v>
       </c>
       <c r="T1">
-        <f>'AEO 36'!U1</f>
         <v>2037</v>
       </c>
       <c r="U1">
-        <f>'AEO 36'!V1</f>
         <v>2038</v>
       </c>
       <c r="V1">
-        <f>'AEO 36'!W1</f>
         <v>2039</v>
       </c>
       <c r="W1">
-        <f>'AEO 36'!X1</f>
         <v>2040</v>
       </c>
       <c r="X1">
-        <f>'AEO 36'!Y1</f>
         <v>2041</v>
       </c>
       <c r="Y1">
-        <f>'AEO 36'!Z1</f>
         <v>2042</v>
       </c>
       <c r="Z1">
-        <f>'AEO 36'!AA1</f>
         <v>2043</v>
       </c>
       <c r="AA1">
-        <f>'AEO 36'!AB1</f>
         <v>2044</v>
       </c>
       <c r="AB1">
-        <f>'AEO 36'!AC1</f>
         <v>2045</v>
       </c>
       <c r="AC1">
-        <f>'AEO 36'!AD1</f>
         <v>2046</v>
       </c>
       <c r="AD1">
-        <f>'AEO 36'!AE1</f>
         <v>2047</v>
       </c>
       <c r="AE1">
-        <f>'AEO 36'!AF1</f>
         <v>2048</v>
       </c>
       <c r="AF1">
-        <f>'AEO 36'!AG1</f>
         <v>2049</v>
       </c>
       <c r="AG1">
-        <f>'AEO 36'!AH1</f>
         <v>2050</v>
       </c>
     </row>
@@ -11156,131 +11092,99 @@
         <v>276</v>
       </c>
       <c r="B1">
-        <f>'AEO 36'!C1</f>
         <v>2019</v>
       </c>
       <c r="C1">
-        <f>'AEO 36'!D1</f>
         <v>2020</v>
       </c>
       <c r="D1">
-        <f>'AEO 36'!E1</f>
         <v>2021</v>
       </c>
       <c r="E1">
-        <f>'AEO 36'!F1</f>
         <v>2022</v>
       </c>
       <c r="F1">
-        <f>'AEO 36'!G1</f>
         <v>2023</v>
       </c>
       <c r="G1">
-        <f>'AEO 36'!H1</f>
         <v>2024</v>
       </c>
       <c r="H1">
-        <f>'AEO 36'!I1</f>
         <v>2025</v>
       </c>
       <c r="I1">
-        <f>'AEO 36'!J1</f>
         <v>2026</v>
       </c>
       <c r="J1">
-        <f>'AEO 36'!K1</f>
         <v>2027</v>
       </c>
       <c r="K1">
-        <f>'AEO 36'!L1</f>
         <v>2028</v>
       </c>
       <c r="L1">
-        <f>'AEO 36'!M1</f>
         <v>2029</v>
       </c>
       <c r="M1">
-        <f>'AEO 36'!N1</f>
         <v>2030</v>
       </c>
       <c r="N1">
-        <f>'AEO 36'!O1</f>
         <v>2031</v>
       </c>
       <c r="O1">
-        <f>'AEO 36'!P1</f>
         <v>2032</v>
       </c>
       <c r="P1">
-        <f>'AEO 36'!Q1</f>
         <v>2033</v>
       </c>
       <c r="Q1">
-        <f>'AEO 36'!R1</f>
         <v>2034</v>
       </c>
       <c r="R1">
-        <f>'AEO 36'!S1</f>
         <v>2035</v>
       </c>
       <c r="S1">
-        <f>'AEO 36'!T1</f>
         <v>2036</v>
       </c>
       <c r="T1">
-        <f>'AEO 36'!U1</f>
         <v>2037</v>
       </c>
       <c r="U1">
-        <f>'AEO 36'!V1</f>
         <v>2038</v>
       </c>
       <c r="V1">
-        <f>'AEO 36'!W1</f>
         <v>2039</v>
       </c>
       <c r="W1">
-        <f>'AEO 36'!X1</f>
         <v>2040</v>
       </c>
       <c r="X1">
-        <f>'AEO 36'!Y1</f>
         <v>2041</v>
       </c>
       <c r="Y1">
-        <f>'AEO 36'!Z1</f>
         <v>2042</v>
       </c>
       <c r="Z1">
-        <f>'AEO 36'!AA1</f>
         <v>2043</v>
       </c>
       <c r="AA1">
-        <f>'AEO 36'!AB1</f>
         <v>2044</v>
       </c>
       <c r="AB1">
-        <f>'AEO 36'!AC1</f>
         <v>2045</v>
       </c>
       <c r="AC1">
-        <f>'AEO 36'!AD1</f>
         <v>2046</v>
       </c>
       <c r="AD1">
-        <f>'AEO 36'!AE1</f>
         <v>2047</v>
       </c>
       <c r="AE1">
-        <f>'AEO 36'!AF1</f>
         <v>2048</v>
       </c>
       <c r="AF1">
-        <f>'AEO 36'!AG1</f>
         <v>2049</v>
       </c>
       <c r="AG1">
-        <f>'AEO 36'!AH1</f>
         <v>2050</v>
       </c>
     </row>
@@ -23684,9 +23588,7 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AH1" sqref="AH1:AI11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -27129,8 +27031,8 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AG1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -29394,7 +29296,7 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -39859,8 +39761,8 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AG1"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AG6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -41029,7 +40931,9 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:AG1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -41041,131 +40945,99 @@
         <v>276</v>
       </c>
       <c r="B1">
-        <f>'AEO 36'!C1</f>
         <v>2019</v>
       </c>
       <c r="C1">
-        <f>'AEO 36'!D1</f>
         <v>2020</v>
       </c>
       <c r="D1">
-        <f>'AEO 36'!E1</f>
         <v>2021</v>
       </c>
       <c r="E1">
-        <f>'AEO 36'!F1</f>
         <v>2022</v>
       </c>
       <c r="F1">
-        <f>'AEO 36'!G1</f>
         <v>2023</v>
       </c>
       <c r="G1">
-        <f>'AEO 36'!H1</f>
         <v>2024</v>
       </c>
       <c r="H1">
-        <f>'AEO 36'!I1</f>
         <v>2025</v>
       </c>
       <c r="I1">
-        <f>'AEO 36'!J1</f>
         <v>2026</v>
       </c>
       <c r="J1">
-        <f>'AEO 36'!K1</f>
         <v>2027</v>
       </c>
       <c r="K1">
-        <f>'AEO 36'!L1</f>
         <v>2028</v>
       </c>
       <c r="L1">
-        <f>'AEO 36'!M1</f>
         <v>2029</v>
       </c>
       <c r="M1">
-        <f>'AEO 36'!N1</f>
         <v>2030</v>
       </c>
       <c r="N1">
-        <f>'AEO 36'!O1</f>
         <v>2031</v>
       </c>
       <c r="O1">
-        <f>'AEO 36'!P1</f>
         <v>2032</v>
       </c>
       <c r="P1">
-        <f>'AEO 36'!Q1</f>
         <v>2033</v>
       </c>
       <c r="Q1">
-        <f>'AEO 36'!R1</f>
         <v>2034</v>
       </c>
       <c r="R1">
-        <f>'AEO 36'!S1</f>
         <v>2035</v>
       </c>
       <c r="S1">
-        <f>'AEO 36'!T1</f>
         <v>2036</v>
       </c>
       <c r="T1">
-        <f>'AEO 36'!U1</f>
         <v>2037</v>
       </c>
       <c r="U1">
-        <f>'AEO 36'!V1</f>
         <v>2038</v>
       </c>
       <c r="V1">
-        <f>'AEO 36'!W1</f>
         <v>2039</v>
       </c>
       <c r="W1">
-        <f>'AEO 36'!X1</f>
         <v>2040</v>
       </c>
       <c r="X1">
-        <f>'AEO 36'!Y1</f>
         <v>2041</v>
       </c>
       <c r="Y1">
-        <f>'AEO 36'!Z1</f>
         <v>2042</v>
       </c>
       <c r="Z1">
-        <f>'AEO 36'!AA1</f>
         <v>2043</v>
       </c>
       <c r="AA1">
-        <f>'AEO 36'!AB1</f>
         <v>2044</v>
       </c>
       <c r="AB1">
-        <f>'AEO 36'!AC1</f>
         <v>2045</v>
       </c>
       <c r="AC1">
-        <f>'AEO 36'!AD1</f>
         <v>2046</v>
       </c>
       <c r="AD1">
-        <f>'AEO 36'!AE1</f>
         <v>2047</v>
       </c>
       <c r="AE1">
-        <f>'AEO 36'!AF1</f>
         <v>2048</v>
       </c>
       <c r="AF1">
-        <f>'AEO 36'!AG1</f>
         <v>2049</v>
       </c>
       <c r="AG1">
-        <f>'AEO 36'!AH1</f>
         <v>2050</v>
       </c>
     </row>
@@ -42191,8 +42063,8 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:AG7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -42205,131 +42077,99 @@
         <v>276</v>
       </c>
       <c r="B1">
-        <f>'AEO 36'!C1</f>
         <v>2019</v>
       </c>
       <c r="C1">
-        <f>'AEO 36'!D1</f>
         <v>2020</v>
       </c>
       <c r="D1">
-        <f>'AEO 36'!E1</f>
         <v>2021</v>
       </c>
       <c r="E1">
-        <f>'AEO 36'!F1</f>
         <v>2022</v>
       </c>
       <c r="F1">
-        <f>'AEO 36'!G1</f>
         <v>2023</v>
       </c>
       <c r="G1">
-        <f>'AEO 36'!H1</f>
         <v>2024</v>
       </c>
       <c r="H1">
-        <f>'AEO 36'!I1</f>
         <v>2025</v>
       </c>
       <c r="I1">
-        <f>'AEO 36'!J1</f>
         <v>2026</v>
       </c>
       <c r="J1">
-        <f>'AEO 36'!K1</f>
         <v>2027</v>
       </c>
       <c r="K1">
-        <f>'AEO 36'!L1</f>
         <v>2028</v>
       </c>
       <c r="L1">
-        <f>'AEO 36'!M1</f>
         <v>2029</v>
       </c>
       <c r="M1">
-        <f>'AEO 36'!N1</f>
         <v>2030</v>
       </c>
       <c r="N1">
-        <f>'AEO 36'!O1</f>
         <v>2031</v>
       </c>
       <c r="O1">
-        <f>'AEO 36'!P1</f>
         <v>2032</v>
       </c>
       <c r="P1">
-        <f>'AEO 36'!Q1</f>
         <v>2033</v>
       </c>
       <c r="Q1">
-        <f>'AEO 36'!R1</f>
         <v>2034</v>
       </c>
       <c r="R1">
-        <f>'AEO 36'!S1</f>
         <v>2035</v>
       </c>
       <c r="S1">
-        <f>'AEO 36'!T1</f>
         <v>2036</v>
       </c>
       <c r="T1">
-        <f>'AEO 36'!U1</f>
         <v>2037</v>
       </c>
       <c r="U1">
-        <f>'AEO 36'!V1</f>
         <v>2038</v>
       </c>
       <c r="V1">
-        <f>'AEO 36'!W1</f>
         <v>2039</v>
       </c>
       <c r="W1">
-        <f>'AEO 36'!X1</f>
         <v>2040</v>
       </c>
       <c r="X1">
-        <f>'AEO 36'!Y1</f>
         <v>2041</v>
       </c>
       <c r="Y1">
-        <f>'AEO 36'!Z1</f>
         <v>2042</v>
       </c>
       <c r="Z1">
-        <f>'AEO 36'!AA1</f>
         <v>2043</v>
       </c>
       <c r="AA1">
-        <f>'AEO 36'!AB1</f>
         <v>2044</v>
       </c>
       <c r="AB1">
-        <f>'AEO 36'!AC1</f>
         <v>2045</v>
       </c>
       <c r="AC1">
-        <f>'AEO 36'!AD1</f>
         <v>2046</v>
       </c>
       <c r="AD1">
-        <f>'AEO 36'!AE1</f>
         <v>2047</v>
       </c>
       <c r="AE1">
-        <f>'AEO 36'!AF1</f>
         <v>2048</v>
       </c>
       <c r="AF1">
-        <f>'AEO 36'!AG1</f>
         <v>2049</v>
       </c>
       <c r="AG1">
-        <f>'AEO 36'!AH1</f>
         <v>2050</v>
       </c>
     </row>
@@ -75403,9 +75243,7 @@
   </sheetPr>
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -83409,8 +83247,8 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AG1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -84593,131 +84431,99 @@
         <v>276</v>
       </c>
       <c r="B1">
-        <f>'AEO 36'!C1</f>
         <v>2019</v>
       </c>
       <c r="C1">
-        <f>'AEO 36'!D1</f>
         <v>2020</v>
       </c>
       <c r="D1">
-        <f>'AEO 36'!E1</f>
         <v>2021</v>
       </c>
       <c r="E1">
-        <f>'AEO 36'!F1</f>
         <v>2022</v>
       </c>
       <c r="F1">
-        <f>'AEO 36'!G1</f>
         <v>2023</v>
       </c>
       <c r="G1">
-        <f>'AEO 36'!H1</f>
         <v>2024</v>
       </c>
       <c r="H1">
-        <f>'AEO 36'!I1</f>
         <v>2025</v>
       </c>
       <c r="I1">
-        <f>'AEO 36'!J1</f>
         <v>2026</v>
       </c>
       <c r="J1">
-        <f>'AEO 36'!K1</f>
         <v>2027</v>
       </c>
       <c r="K1">
-        <f>'AEO 36'!L1</f>
         <v>2028</v>
       </c>
       <c r="L1">
-        <f>'AEO 36'!M1</f>
         <v>2029</v>
       </c>
       <c r="M1">
-        <f>'AEO 36'!N1</f>
         <v>2030</v>
       </c>
       <c r="N1">
-        <f>'AEO 36'!O1</f>
         <v>2031</v>
       </c>
       <c r="O1">
-        <f>'AEO 36'!P1</f>
         <v>2032</v>
       </c>
       <c r="P1">
-        <f>'AEO 36'!Q1</f>
         <v>2033</v>
       </c>
       <c r="Q1">
-        <f>'AEO 36'!R1</f>
         <v>2034</v>
       </c>
       <c r="R1">
-        <f>'AEO 36'!S1</f>
         <v>2035</v>
       </c>
       <c r="S1">
-        <f>'AEO 36'!T1</f>
         <v>2036</v>
       </c>
       <c r="T1">
-        <f>'AEO 36'!U1</f>
         <v>2037</v>
       </c>
       <c r="U1">
-        <f>'AEO 36'!V1</f>
         <v>2038</v>
       </c>
       <c r="V1">
-        <f>'AEO 36'!W1</f>
         <v>2039</v>
       </c>
       <c r="W1">
-        <f>'AEO 36'!X1</f>
         <v>2040</v>
       </c>
       <c r="X1">
-        <f>'AEO 36'!Y1</f>
         <v>2041</v>
       </c>
       <c r="Y1">
-        <f>'AEO 36'!Z1</f>
         <v>2042</v>
       </c>
       <c r="Z1">
-        <f>'AEO 36'!AA1</f>
         <v>2043</v>
       </c>
       <c r="AA1">
-        <f>'AEO 36'!AB1</f>
         <v>2044</v>
       </c>
       <c r="AB1">
-        <f>'AEO 36'!AC1</f>
         <v>2045</v>
       </c>
       <c r="AC1">
-        <f>'AEO 36'!AD1</f>
         <v>2046</v>
       </c>
       <c r="AD1">
-        <f>'AEO 36'!AE1</f>
         <v>2047</v>
       </c>
       <c r="AE1">
-        <f>'AEO 36'!AF1</f>
         <v>2048</v>
       </c>
       <c r="AF1">
-        <f>'AEO 36'!AG1</f>
         <v>2049</v>
       </c>
       <c r="AG1">
-        <f>'AEO 36'!AH1</f>
         <v>2050</v>
       </c>
     </row>
@@ -87010,7 +86816,7 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -90489,7 +90295,7 @@
   <dimension ref="A1:AG11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C11"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -98082,7 +97888,7 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -99248,9 +99054,7 @@
   </sheetPr>
   <dimension ref="A1:AJ11"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AG1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
